--- a/xlsx/美国人_intext.xlsx
+++ b/xlsx/美国人_intext.xlsx
@@ -15,1025 +15,1019 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
   <si>
     <t>美国人</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA_(%E7%B3%95%E7%82%B9)</t>
+  </si>
+  <si>
+    <t>美国人 (糕点)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国人</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Americans</t>
+  </si>
+  <si>
+    <t>en-Americans</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
+  </si>
+  <si>
+    <t>菲律宾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>利比里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>沙乌地阿拉伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>哥斯达黎加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
+  </si>
+  <si>
+    <t>挪威</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>大韩民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
+  </si>
+  <si>
+    <t>黎巴嫩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新西兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>美国英语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
+  </si>
+  <si>
+    <t>西班牙语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国语言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%97%A8%E6%95%99</t>
+  </si>
+  <si>
+    <t>摩门教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>无神论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99</t>
+  </si>
+  <si>
+    <t>犹太教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>美国宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%AC%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美国公民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%AC%E6%B0%91%E5%87%BA%E7%94%9F%E5%9C%B0%E5%8E%9F%E5%88%99</t>
+  </si>
+  <si>
+    <t>美国公民出生地原则</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%94%9F</t>
+  </si>
+  <si>
+    <t>出生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国各州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
+  </si>
+  <si>
+    <t>美国种族及民族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>白人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9</t>
+  </si>
+  <si>
+    <t>伊比利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>黑人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80</t>
+  </si>
+  <si>
+    <t>混血</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>亚洲人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
+  </si>
+  <si>
+    <t>美国原住民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
+  </si>
+  <si>
+    <t>夏威夷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>太平洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>美国白人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>拉丁裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
+  </si>
+  <si>
+    <t>古巴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>亚裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
+  </si>
+  <si>
+    <t>越南</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>美国人口</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>Template talk-美国索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国历史年表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>前哥伦布时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>十三殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
+  </si>
+  <si>
+    <t>美国独立宣言</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
+  </si>
+  <si>
+    <t>美国革命</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
+  </si>
+  <si>
+    <t>美国领土变迁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>美国内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>美国重建时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>冷战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>朝鲜战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>非裔美国人民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>越南战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>波斯湾战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>反恐战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
+  </si>
+  <si>
+    <t>金融海啸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>美国经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>美国债务上限历史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>美国军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
+  </si>
+  <si>
+    <t>美国邮政署</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>美国科学技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>美国法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+  </si>
+  <si>
+    <t>美国宪法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
+  </si>
+  <si>
+    <t>美国权利法案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
+  </si>
+  <si>
+    <t>权力分立</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国联邦机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>美国总统办事机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
+  </si>
+  <si>
+    <t>美国政府独立机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地区法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>联邦调查局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国情报体系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
+  </si>
+  <si>
+    <t>国家情报总监</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>中央情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国防情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家地理空间情报局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家侦察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国空军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国陆军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海军陆战队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
+  </si>
+  <si>
+    <t>美国海军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
+  </si>
+  <si>
+    <t>美国海岸警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
+  </si>
+  <si>
+    <t>美国国民警卫队</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>美国政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
+  </si>
+  <si>
+    <t>美国选举</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国政党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>民主党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>第三党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>美国第51州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
+  </si>
+  <si>
+    <t>en-Political status of Puerto Rico</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>红州与蓝州</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Purple_America</t>
+  </si>
+  <si>
+    <t>en-Purple America</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
+  </si>
+  <si>
+    <t>山姆大叔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
+  </si>
+  <si>
+    <t>美国地理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
+  </si>
+  <si>
+    <t>县 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
+  </si>
+  <si>
+    <t>阿巴拉契亚山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
+  </si>
+  <si>
+    <t>洛矶山脉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国国家公园列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>美国地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>中大西洋地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国中西部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
+  </si>
+  <si>
+    <t>北美大平原</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国西南部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国河流列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密苏里河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>科罗拉多河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
+  </si>
+  <si>
+    <t>美国领土</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Agriculture in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
+  </si>
+  <si>
+    <t>美国梦</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
+  </si>
+  <si>
+    <t>en-United States federal budget</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>联邦储备系统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国的工会</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Social programs in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
+  </si>
+  <si>
+    <t>美国国债</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Taxation in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
+  </si>
+  <si>
+    <t>美国交通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国机场列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
+  </si>
+  <si>
+    <t>美国国道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
+  </si>
+  <si>
+    <t>州际公路系统</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Unemployment in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
+  </si>
+  <si>
+    <t>美元</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
+  </si>
+  <si>
+    <t>华尔街</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
+  </si>
+  <si>
+    <t>美国社会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
+  </si>
+  <si>
+    <t>美国犯罪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>美国教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
+  </si>
+  <si>
+    <t>美国卫生保健</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>美国监禁制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
+  </si>
+  <si>
+    <t>美国媒体</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA_(%E7%B3%95%E7%82%B9)</t>
-  </si>
-  <si>
-    <t>美国人 (糕点)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国人</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Americans</t>
-  </si>
-  <si>
-    <t>en-Americans</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
-  </si>
-  <si>
-    <t>菲律賓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>沙烏地阿拉伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>大韩民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新西蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>美国英语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
-  </si>
-  <si>
-    <t>西班牙语</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AF%AD%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国语言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%97%A8%E6%95%99</t>
-  </si>
-  <si>
-    <t>摩门教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>无神论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E6%95%99</t>
-  </si>
-  <si>
-    <t>犹太教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>美国宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%AC%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美国公民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%AC%E6%B0%91%E5%87%BA%E7%94%9F%E5%9C%B0%E5%8E%9F%E5%88%99</t>
-  </si>
-  <si>
-    <t>美国公民出生地原则</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%94%9F</t>
-  </si>
-  <si>
-    <t>出生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美国各州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%8D%E6%97%8F%E5%8F%8A%E6%B0%91%E6%97%8F</t>
-  </si>
-  <si>
-    <t>美国种族及民族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>白人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9</t>
-  </si>
-  <si>
-    <t>伊比利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>黑人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E8%A1%80</t>
-  </si>
-  <si>
-    <t>混血</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>亚洲人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
-  </si>
-  <si>
-    <t>美國原住民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7</t>
-  </si>
-  <si>
-    <t>夏威夷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>太平洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>美國白人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>拉丁裔美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>亚裔美国人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美國人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>Template talk-美国索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8E%86%E5%8F%B2%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国历史年表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>前哥倫布時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>十三殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8B%AC%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
-  </si>
-  <si>
-    <t>美国独立宣言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%9D%A9%E5%91%BD</t>
-  </si>
-  <si>
-    <t>美国革命</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
-  </si>
-  <si>
-    <t>美國領土變遷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>美国内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%87%8D%E5%BB%BA%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>美国重建时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>冷战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>朝鲜战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>非裔美国人民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>越南战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波斯灣戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>反恐战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
-  </si>
-  <si>
-    <t>金融海嘯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
-  </si>
-  <si>
-    <t>美国人口</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>美国经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%80%BA%E5%8A%A1%E4%B8%8A%E9%99%90%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>美国债务上限历史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>美国军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
-  </si>
-  <si>
-    <t>美國郵政署</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>美国科学技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美国联邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>美国法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
-  </si>
-  <si>
-    <t>美国宪法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9D%83%E5%88%A9%E6%B3%95%E6%A1%88</t>
-  </si>
-  <si>
-    <t>美国权利法案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
-  </si>
-  <si>
-    <t>權力分立</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國聯邦機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>美国总统办事机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
-  </si>
-  <si>
-    <t>美國政府獨立機構</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E5%8C%BA%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地区法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E8%B0%83%E6%9F%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>联邦调查局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美國情報體系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
-  </si>
-  <si>
-    <t>國家情報總監</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國防情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美國國家地理空間情報局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家侦察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国家安全局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A9%BA%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国空军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国陆军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海军陆战队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B</t>
-  </si>
-  <si>
-    <t>美国海军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%B2%B8%E8%AD%A6%E5%8D%AB%E9%98%9F</t>
-  </si>
-  <si>
-    <t>美国海岸警卫队</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
-  </si>
-  <si>
-    <t>美國國民警衛隊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>美国政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
-  </si>
-  <si>
-    <t>美國選舉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国政党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>民主党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>共和党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>第三党 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>美國第51州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
-  </si>
-  <si>
-    <t>en-Political status of Puerto Rico</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>紅州與藍州</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Purple_America</t>
-  </si>
-  <si>
-    <t>en-Purple America</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%A7%86%E5%A4%A7%E5%8F%94</t>
-  </si>
-  <si>
-    <t>山姆大叔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9C%B0%E7%90%86</t>
-  </si>
-  <si>
-    <t>美国地理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%BF_(%E7%BE%8E%E5%9B%BD)</t>
-  </si>
-  <si>
-    <t>县 (美国)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B7%B4%E6%8B%89%E5%A5%91%E4%BA%9A%E5%B1%B1%E8%84%89</t>
-  </si>
-  <si>
-    <t>阿巴拉契亚山脉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
-  </si>
-  <si>
-    <t>洛磯山脈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国国家公园列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>美國地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>中大西洋地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國中西部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
-  </si>
-  <si>
-    <t>北美大平原</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國西南部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国河流列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密苏里河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>科罗拉多河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
-  </si>
-  <si>
-    <t>美国领土</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Agriculture_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Agriculture in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
-  </si>
-  <si>
-    <t>美國夢</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
-  </si>
-  <si>
-    <t>en-United States federal budget</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>聯邦儲備系統</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國的工會</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Social programs in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
-  </si>
-  <si>
-    <t>美國國債</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Taxation in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
-  </si>
-  <si>
-    <t>美國交通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国机场列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
-  </si>
-  <si>
-    <t>美國國道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
-  </si>
-  <si>
-    <t>州際公路系統</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Unemployment in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
-  </si>
-  <si>
-    <t>美元</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97</t>
-  </si>
-  <si>
-    <t>华尔街</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
-  </si>
-  <si>
-    <t>美國社會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
-  </si>
-  <si>
-    <t>美国犯罪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>美国教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E4%BF%9D%E5%81%A5</t>
-  </si>
-  <si>
-    <t>美国卫生保健</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9B%91%E7%A6%81%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>美国监禁制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AA%92%E4%BD%93</t>
-  </si>
-  <si>
-    <t>美国媒体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%8A%82%E6%97%A5</t>
   </si>
   <si>
@@ -1043,15 +1037,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1115,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1151,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1169,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1205,19 +1196,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1242,15 +1233,6 @@
   </si>
   <si>
     <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1599,7 +1581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,7 +3024,7 @@
         <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3068,10 +3050,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3097,10 +3079,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3126,10 +3108,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3155,10 +3137,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3184,10 +3166,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3213,10 +3195,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3242,10 +3224,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3271,10 +3253,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3300,10 +3282,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>6</v>
@@ -3329,10 +3311,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -3358,10 +3340,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3387,10 +3369,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3416,10 +3398,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3445,10 +3427,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3474,10 +3456,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3503,10 +3485,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3532,10 +3514,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3561,10 +3543,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3590,10 +3572,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3619,10 +3601,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3648,10 +3630,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3677,10 +3659,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3706,10 +3688,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3735,10 +3717,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3764,10 +3746,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3793,10 +3775,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3822,10 +3804,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3851,10 +3833,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3880,10 +3862,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3909,10 +3891,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3938,10 +3920,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3967,10 +3949,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3996,10 +3978,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4025,10 +4007,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4054,10 +4036,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4083,10 +4065,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4112,10 +4094,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4141,10 +4123,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4170,10 +4152,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4199,10 +4181,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4228,10 +4210,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4257,10 +4239,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4286,10 +4268,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4315,10 +4297,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4344,10 +4326,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4373,10 +4355,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4402,10 +4384,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4431,10 +4413,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4460,10 +4442,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4489,10 +4471,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4518,10 +4500,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4547,10 +4529,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4576,10 +4558,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4605,10 +4587,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4634,10 +4616,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4663,10 +4645,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4692,10 +4674,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4721,10 +4703,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4750,10 +4732,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4779,10 +4761,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4808,10 +4790,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4837,10 +4819,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4866,10 +4848,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4895,10 +4877,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4924,10 +4906,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4953,10 +4935,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4982,10 +4964,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5011,10 +4993,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -5040,10 +5022,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5069,10 +5051,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5098,10 +5080,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5127,10 +5109,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5156,10 +5138,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5185,10 +5167,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5214,10 +5196,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5243,10 +5225,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5272,10 +5254,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5301,10 +5283,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5330,10 +5312,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5359,10 +5341,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5388,10 +5370,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5417,10 +5399,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5446,10 +5428,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5475,10 +5457,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5504,10 +5486,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5533,10 +5515,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5562,10 +5544,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5591,10 +5573,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5620,10 +5602,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5649,10 +5631,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5678,10 +5660,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5707,10 +5689,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5736,10 +5718,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5765,10 +5747,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5794,10 +5776,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5823,10 +5805,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5852,10 +5834,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5881,10 +5863,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5910,10 +5892,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5939,10 +5921,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5968,10 +5950,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5997,10 +5979,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6026,10 +6008,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6055,10 +6037,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6084,10 +6066,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6113,10 +6095,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6142,10 +6124,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6171,10 +6153,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6200,10 +6182,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6229,10 +6211,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6258,10 +6240,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6287,10 +6269,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6316,10 +6298,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6345,10 +6327,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6374,10 +6356,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>3</v>
@@ -6403,10 +6385,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6432,10 +6414,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6461,10 +6443,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6490,10 +6472,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6577,10 +6559,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -6606,13 +6588,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -6635,13 +6617,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>64</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -6664,13 +6646,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>63</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -6693,10 +6675,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6722,10 +6704,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6751,10 +6733,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6780,10 +6762,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6809,10 +6791,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6838,13 +6820,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -6867,13 +6849,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -6896,10 +6878,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6925,10 +6907,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6954,10 +6936,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6983,10 +6965,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7012,10 +6994,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7041,10 +7023,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7070,13 +7052,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G189" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7099,13 +7081,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7128,10 +7110,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7157,10 +7139,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7186,10 +7168,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7215,10 +7197,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7244,10 +7226,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7273,10 +7255,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7302,13 +7284,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7331,13 +7313,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7360,10 +7342,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7389,10 +7371,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7418,10 +7400,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7447,10 +7429,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7476,10 +7458,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7505,10 +7487,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7534,13 +7516,13 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -7563,13 +7545,13 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -7592,10 +7574,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7621,10 +7603,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7650,47 +7632,18 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G209" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1</v>
-      </c>
-      <c r="D210" t="n">
-        <v>209</v>
-      </c>
-      <c r="E210" t="s">
-        <v>409</v>
-      </c>
-      <c r="F210" t="s">
-        <v>411</v>
-      </c>
-      <c r="G210" t="n">
-        <v>1</v>
-      </c>
-      <c r="H210" t="s">
-        <v>4</v>
-      </c>
-      <c r="I210" t="n">
         <v>3</v>
       </c>
     </row>
